--- a/Documentation and User Testing/WebDev_taskBreakdown.xlsx
+++ b/Documentation and User Testing/WebDev_taskBreakdown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Owner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Owner/Desktop/WebDevProject-zrobinso/Documentation and User Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC93C0A-442C-B34F-A9FE-2852A621C6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AA847C-E88F-1140-A42B-CA8F44044DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="15860" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="21700" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Breakdown" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Task Breakdown</t>
   </si>
@@ -342,15 +342,6 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -374,6 +365,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1581,12 +1581,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -1637,7 +1637,7 @@
       <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>45730</v>
       </c>
       <c r="D5" s="9">
@@ -1651,7 +1651,7 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>45730</v>
       </c>
       <c r="D6" s="9">
@@ -1665,7 +1665,7 @@
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>45730</v>
       </c>
       <c r="D7" s="9">
@@ -1693,10 +1693,10 @@
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>45731</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>45733</v>
       </c>
     </row>
@@ -1707,10 +1707,10 @@
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>45733</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>45734</v>
       </c>
     </row>
@@ -1721,10 +1721,10 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>45734</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>45734</v>
       </c>
     </row>
@@ -1735,11 +1735,11 @@
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>45737</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>12</v>
+      <c r="D12" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1749,25 +1749,25 @@
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>45738</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
+      <c r="D13" s="9">
+        <v>45743</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>45739</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>12</v>
+      <c r="D14" s="9">
+        <v>45745</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1777,11 +1777,11 @@
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>45739</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>12</v>
+      <c r="D15" s="9">
+        <v>45744</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="41" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,122 +1791,122 @@
       <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>45739</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>12</v>
+      <c r="D16" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>45739</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>12</v>
+      <c r="D17" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>45739</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>12</v>
+      <c r="D18" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>45740</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>12</v>
+      <c r="D19" s="9">
+        <v>45746</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
